--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14865" windowHeight="6795"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,30 +24,1770 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="588">
+  <si>
+    <t>23694289100</t>
+  </si>
+  <si>
+    <t>Rua C</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Vl Moraes</t>
+  </si>
+  <si>
+    <t>Mogi das Cruzes</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>08766-530</t>
+  </si>
+  <si>
+    <t>11-4725-7393</t>
+  </si>
+  <si>
+    <t>rmachad3@hotmail.com</t>
+  </si>
+  <si>
+    <t>30987276832</t>
+  </si>
+  <si>
+    <t>Rua Francisco Martines Casanova</t>
+  </si>
+  <si>
+    <t>485</t>
+  </si>
+  <si>
+    <t>Bl 7 Ap 31</t>
+  </si>
+  <si>
+    <t>Jd Santa Teresa</t>
+  </si>
+  <si>
+    <t>08743-320</t>
+  </si>
+  <si>
+    <t>11-99630-6895</t>
+  </si>
+  <si>
+    <t>11-4798-4989</t>
+  </si>
+  <si>
+    <t>satogui@hotmail.com</t>
+  </si>
+  <si>
+    <t>30057274835</t>
+  </si>
+  <si>
+    <t>Rua Paulino Ayres de Barros</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Jd Marcato</t>
+  </si>
+  <si>
+    <t>Suzano</t>
+  </si>
+  <si>
+    <t>08665-070</t>
+  </si>
+  <si>
+    <t>11-96033-1109</t>
+  </si>
+  <si>
+    <t>11-4742-1552</t>
+  </si>
+  <si>
+    <t>aldeniabdelima@gmail.com</t>
+  </si>
+  <si>
+    <t>30771549865</t>
+  </si>
+  <si>
+    <t>Rua Regina Cabalau Mendonça</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>cs 01</t>
+  </si>
+  <si>
+    <t>Jd São Luiz</t>
+  </si>
+  <si>
+    <t>08675-460</t>
+  </si>
+  <si>
+    <t>11-98021-4934</t>
+  </si>
+  <si>
+    <t>alinecpaula2013@gmail.com</t>
+  </si>
+  <si>
+    <t>35070646850</t>
+  </si>
+  <si>
+    <t>Rua Gentil Bastos de Carvalho</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>Pq Fernanda</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>05888-110</t>
+  </si>
+  <si>
+    <t>11-96712-5692</t>
+  </si>
+  <si>
+    <t>11-5823-4556</t>
+  </si>
+  <si>
+    <t>andrezaserra@hotmail.com</t>
+  </si>
+  <si>
+    <t>33690093821</t>
+  </si>
+  <si>
+    <t>Rua Major Dietrich Ott</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jd das Colinas </t>
+  </si>
+  <si>
+    <t>São José dos Campos</t>
+  </si>
+  <si>
+    <t>12242-111</t>
+  </si>
+  <si>
+    <t>11-97122-8184</t>
+  </si>
+  <si>
+    <t>ariane2612@hotmail.com</t>
+  </si>
+  <si>
+    <t>22555100814</t>
+  </si>
+  <si>
+    <t>Rua São Francisco</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Bl 28 Ap 12</t>
+  </si>
+  <si>
+    <t>Vl Bela Flor</t>
+  </si>
+  <si>
+    <t>08745-250</t>
+  </si>
+  <si>
+    <t>11-98379-1404</t>
+  </si>
+  <si>
+    <t>barbara@formica.com.br</t>
+  </si>
+  <si>
+    <t>33221858850</t>
+  </si>
+  <si>
+    <t>Rua Santa Helena</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>Vl São Paulo</t>
+  </si>
+  <si>
+    <t>08840-530</t>
+  </si>
+  <si>
+    <t>11-2378-3573</t>
+  </si>
+  <si>
+    <t>carolinesilvamattos06@gmail.com</t>
+  </si>
+  <si>
+    <t>06968579600</t>
+  </si>
+  <si>
+    <t>Rua das Usinas</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>Vl Penteado</t>
+  </si>
+  <si>
+    <t>02867-090</t>
+  </si>
+  <si>
+    <t>11-97097-2531</t>
+  </si>
+  <si>
+    <t>11-94789-6558</t>
+  </si>
+  <si>
+    <t>celiaxaraujo@gmail.com</t>
+  </si>
+  <si>
+    <t>41071634828</t>
+  </si>
+  <si>
+    <t>Estrada Santa Mônica</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>bl a apto 41</t>
+  </si>
+  <si>
+    <t>Pq Santa Rosa</t>
+  </si>
+  <si>
+    <t>08664-015</t>
+  </si>
+  <si>
+    <t>11-96773-8359</t>
+  </si>
+  <si>
+    <t>kelly.firmo27@gmail.com</t>
+  </si>
+  <si>
+    <t>28347329818</t>
+  </si>
+  <si>
+    <t>Rua João Benegas Ortiz</t>
+  </si>
+  <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>Bl a apto 24</t>
+  </si>
+  <si>
+    <t>Jd Marica</t>
+  </si>
+  <si>
+    <t>08775-530</t>
+  </si>
+  <si>
+    <t>11-99685-3926</t>
+  </si>
+  <si>
+    <t>11-2312-2803</t>
+  </si>
+  <si>
+    <t>claudia.jarjura@hotmail.com</t>
+  </si>
+  <si>
+    <t>01137231807</t>
+  </si>
+  <si>
+    <t>Rua União</t>
+  </si>
+  <si>
+    <t>483</t>
+  </si>
+  <si>
+    <t>Bl 8 Apto 34</t>
+  </si>
+  <si>
+    <t>Jd America</t>
+  </si>
+  <si>
+    <t>Poá</t>
+  </si>
+  <si>
+    <t>08555-600</t>
+  </si>
+  <si>
+    <t>11-98354-7549</t>
+  </si>
+  <si>
+    <t>11-4638-2321</t>
+  </si>
+  <si>
+    <t>16905590800</t>
+  </si>
+  <si>
+    <t>Rua das Hortencias</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>08664-020</t>
+  </si>
+  <si>
+    <t>11-97375-7730</t>
+  </si>
+  <si>
+    <t>cristiane.radcontabil@uol.com.br</t>
+  </si>
+  <si>
+    <t>31900540886</t>
+  </si>
+  <si>
+    <t>bl A apto 41</t>
+  </si>
+  <si>
+    <t>11-96656-7811</t>
+  </si>
+  <si>
+    <t>daniel.firmo18@gmail.com</t>
+  </si>
+  <si>
+    <t>34592127803</t>
+  </si>
+  <si>
+    <t>Rua do Rubi</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>Jd Monte Cristo</t>
+  </si>
+  <si>
+    <t>08670-200</t>
+  </si>
+  <si>
+    <t>11-98767-8584</t>
+  </si>
+  <si>
+    <t>11-4759-1999</t>
+  </si>
+  <si>
+    <t>danieleheart@hotmail.com</t>
+  </si>
+  <si>
+    <t>23927389803</t>
+  </si>
+  <si>
+    <t>Estrada do Marengo</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>bl C apto 13</t>
+  </si>
+  <si>
+    <t>Jd Fernandes</t>
+  </si>
+  <si>
+    <t>08693-200</t>
+  </si>
+  <si>
+    <t>11-99668-5263</t>
+  </si>
+  <si>
+    <t>velouvor@hotmail.com</t>
+  </si>
+  <si>
+    <t>15655383829</t>
+  </si>
+  <si>
+    <t>Av Saraiva</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>Vl Cintra</t>
+  </si>
+  <si>
+    <t>08745-140</t>
+  </si>
+  <si>
+    <t>11-94732-7854</t>
+  </si>
+  <si>
+    <t>11-4799-4897</t>
+  </si>
+  <si>
+    <t>claudya.fe@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua Ricieri José Marcatto</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>bl 4 apto 61</t>
+  </si>
+  <si>
+    <t>Vl Suissa</t>
+  </si>
+  <si>
+    <t>08810-020</t>
+  </si>
+  <si>
+    <t>11-97368-2658</t>
+  </si>
+  <si>
+    <t>11-2378-8893</t>
+  </si>
+  <si>
+    <t>deisereno@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua Jeca Tatu</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>Vl Urupes</t>
+  </si>
+  <si>
+    <t>08615-020</t>
+  </si>
+  <si>
+    <t>11-99839-4630</t>
+  </si>
+  <si>
+    <t>40117992895</t>
+  </si>
+  <si>
+    <t>Rua 2</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>cs 1</t>
+  </si>
+  <si>
+    <t>Jd Gennari</t>
+  </si>
+  <si>
+    <t>Francisco Morato</t>
+  </si>
+  <si>
+    <t>07920-020</t>
+  </si>
+  <si>
+    <t>11-96113-0125</t>
+  </si>
+  <si>
+    <t>11-4489-1039</t>
+  </si>
+  <si>
+    <t>junior-ramos25@outlook.com</t>
+  </si>
+  <si>
+    <t>Avenida Deputado Castro de Carvalho</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>Vl São João</t>
+  </si>
+  <si>
+    <t>08551-000</t>
+  </si>
+  <si>
+    <t>11-97409-3637</t>
+  </si>
+  <si>
+    <t>eder.carreiro@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua da Lagoa</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Conj Residencial</t>
+  </si>
+  <si>
+    <t>08743-090</t>
+  </si>
+  <si>
+    <t>11-95281-7986</t>
+  </si>
+  <si>
+    <t>11-2610-8877</t>
+  </si>
+  <si>
+    <t>edvaldo.lsi@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua Martha</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>bl 2 apto 31</t>
+  </si>
+  <si>
+    <t>08615-130</t>
+  </si>
+  <si>
+    <t>11-96479-3193</t>
+  </si>
+  <si>
+    <t>11-4759-4369</t>
+  </si>
+  <si>
+    <t>Rua Mario Bochetti</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>Miguel Badra</t>
+  </si>
+  <si>
+    <t>08690-265</t>
+  </si>
+  <si>
+    <t>11-98201-1146</t>
+  </si>
+  <si>
+    <t>11-4752-5874</t>
+  </si>
+  <si>
+    <t>andreasantos182@gmail.com</t>
+  </si>
+  <si>
+    <t>Rua Virgilina Conceição Camargo</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jd Alvorada</t>
+  </si>
+  <si>
+    <t>Biritiba Mirim</t>
+  </si>
+  <si>
+    <t>08940-000</t>
+  </si>
+  <si>
+    <t>11-972048366</t>
+  </si>
+  <si>
+    <t>11-4692-9069</t>
+  </si>
+  <si>
+    <t>toninho_12@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua João Mendes</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Vl São Sebastião</t>
+  </si>
+  <si>
+    <t>08737-350</t>
+  </si>
+  <si>
+    <t>11-97443-3272</t>
+  </si>
+  <si>
+    <t>dgnr.fabricio@gmail.com</t>
+  </si>
+  <si>
+    <t>Rua João Mariano Franco</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Alto da Boa Vista</t>
+  </si>
+  <si>
+    <t>08715-650</t>
+  </si>
+  <si>
+    <t>satoagui@hotmail.com</t>
+  </si>
+  <si>
+    <t>Avenida Portugal</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>ap 62</t>
+  </si>
+  <si>
+    <t>Brooklin Paulista</t>
+  </si>
+  <si>
+    <t>04559-000</t>
+  </si>
+  <si>
+    <t>11-98709-2979</t>
+  </si>
+  <si>
+    <t>filipebiomedico@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>Rua Shiguetoshi Suzuki</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>Vl Paulista</t>
+  </si>
+  <si>
+    <t>08744-120</t>
+  </si>
+  <si>
+    <t>11-98359-4519</t>
+  </si>
+  <si>
+    <t>06101641000119</t>
+  </si>
+  <si>
+    <t>Rua Xapuri</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>Jd Cumbica</t>
+  </si>
+  <si>
+    <t>Guarulhos</t>
+  </si>
+  <si>
+    <t>07240-030</t>
+  </si>
+  <si>
+    <t>11-98970-0607</t>
+  </si>
+  <si>
+    <t>11-2412-9900</t>
+  </si>
+  <si>
+    <t>francisco.gomes@fratec.com.br</t>
+  </si>
+  <si>
+    <t>Rua Jose Candido Ramos</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>Caputera</t>
+  </si>
+  <si>
+    <t>08725-450</t>
+  </si>
+  <si>
+    <t>1199785-0341</t>
+  </si>
+  <si>
+    <t>ivoneteboro@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua Francisco Vaz Coelho</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>apto 42</t>
+  </si>
+  <si>
+    <t>Vl Lavínia</t>
+  </si>
+  <si>
+    <t>08735-440</t>
+  </si>
+  <si>
+    <t>jean1melo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua Pedro Ramos Julio</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Vl Santana</t>
+  </si>
+  <si>
+    <t>08737-240</t>
+  </si>
+  <si>
+    <t>11-99936-3287</t>
+  </si>
+  <si>
+    <t>05785454890</t>
+  </si>
+  <si>
+    <t>Rua Lhubinko Raykov</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Jd Saúde</t>
+  </si>
+  <si>
+    <t>08660-203</t>
+  </si>
+  <si>
+    <t>11-4759-1890</t>
+  </si>
+  <si>
+    <t>06921808858</t>
+  </si>
+  <si>
+    <t>Rua João José Ferreira</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Nove de Julho</t>
+  </si>
+  <si>
+    <t>08753-775</t>
+  </si>
+  <si>
+    <t>11-97262-7527</t>
+  </si>
+  <si>
+    <t>11-4722-1454</t>
+  </si>
+  <si>
+    <t>viniapsantos@hotmail.com</t>
+  </si>
+  <si>
+    <t>00682416827</t>
+  </si>
+  <si>
+    <t>Avenida Gilberto Rodrigues de Souza</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Jd Camila</t>
+  </si>
+  <si>
+    <t>08720-230</t>
+  </si>
+  <si>
+    <t>11-2668-6113</t>
+  </si>
+  <si>
+    <t>Avenida das Americas</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Qd 16 Lt 40</t>
+  </si>
+  <si>
+    <t>Cidade Parquelandia</t>
+  </si>
+  <si>
+    <t>08771-901</t>
+  </si>
+  <si>
+    <t>11-95108-4560</t>
+  </si>
+  <si>
+    <t>medeiros.angelita@bol.com.br</t>
+  </si>
+  <si>
+    <t>46964851887</t>
+  </si>
+  <si>
+    <t>Rua Cel Martinho Rossi</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Vl Santa Teresa</t>
+  </si>
+  <si>
+    <t>Carapicuiba</t>
+  </si>
+  <si>
+    <t>06317-030</t>
+  </si>
+  <si>
+    <t>11-99939-4149</t>
+  </si>
+  <si>
+    <t>11-4181-7281</t>
+  </si>
+  <si>
+    <t>jvbassetto@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rua Rosalino dos Santos</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>Pq Olimpico</t>
+  </si>
+  <si>
+    <t>08746-015</t>
+  </si>
+  <si>
+    <t>11-94241-7697</t>
+  </si>
+  <si>
+    <t>11-4722-7172</t>
+  </si>
+  <si>
+    <t>zulujosimar@gmail.com</t>
+  </si>
+  <si>
+    <t>08005806809</t>
+  </si>
+  <si>
+    <t>Rua Oriente</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>ap 23</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>São Caetano do Sul</t>
+  </si>
+  <si>
+    <t>09551-010</t>
+  </si>
+  <si>
+    <t>11-99616-3862</t>
+  </si>
+  <si>
+    <t>josimari.bomfim@globo.com</t>
+  </si>
+  <si>
+    <t>39350057840</t>
+  </si>
+  <si>
+    <t>Rua Paulo Roberto Rodrigues Nawum</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>Mogi Moderno</t>
+  </si>
+  <si>
+    <t>08717-290</t>
+  </si>
+  <si>
+    <t>almeida_contabilidade@hotmail.com</t>
+  </si>
+  <si>
+    <t>31845511808</t>
+  </si>
+  <si>
+    <t>Rua Clementino Cunha</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Bl 2 Apto 12</t>
+  </si>
+  <si>
+    <t>Pirajussara</t>
+  </si>
+  <si>
+    <t>05757-110</t>
+  </si>
+  <si>
+    <t>11-98326-8268</t>
+  </si>
+  <si>
+    <t>11-3761-4036</t>
+  </si>
+  <si>
+    <t>ka_vendas@hotmail.com</t>
+  </si>
+  <si>
+    <t>22465184822</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>05351290928</t>
+  </si>
+  <si>
+    <t>Rua Nossa Senhora Auxiliadora de Guadalupe</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>cs 03</t>
+  </si>
+  <si>
+    <t>08737-055</t>
+  </si>
+  <si>
+    <t>11-953827817</t>
+  </si>
+  <si>
+    <t>lblachechen@gmail.com</t>
+  </si>
+  <si>
+    <t>41067814841</t>
+  </si>
+  <si>
+    <t>Avenida Angelo Bianconi</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>Jd Realce</t>
+  </si>
+  <si>
+    <t>08664-130</t>
+  </si>
+  <si>
+    <t>11-97954-7987</t>
+  </si>
+  <si>
+    <t>11-4743-2843</t>
+  </si>
+  <si>
+    <t>leticia.yumii@hotmail.com</t>
+  </si>
+  <si>
+    <t>06145955848</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>11-96560-0242</t>
+  </si>
+  <si>
+    <t>26966850888</t>
+  </si>
+  <si>
+    <t>Rua Galheiros</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Cidade Domitila</t>
+  </si>
+  <si>
+    <t>04387-177</t>
+  </si>
+  <si>
+    <t>11-99847-4170</t>
+  </si>
+  <si>
+    <t>lucianabaldin@hotmail.com</t>
+  </si>
+  <si>
+    <t>02591343926</t>
+  </si>
+  <si>
+    <t>Rua Theodoro Makiolka</t>
+  </si>
+  <si>
+    <t>1061</t>
+  </si>
+  <si>
+    <t>casa 13</t>
+  </si>
+  <si>
+    <t>Santa Candida</t>
+  </si>
+  <si>
+    <t>Curitiba</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>82640-010</t>
+  </si>
+  <si>
+    <t>41-9107-4155</t>
+  </si>
+  <si>
+    <t>41-3521-0842</t>
+  </si>
+  <si>
+    <t>lumdguimaraes@gmail.com</t>
+  </si>
+  <si>
+    <t>65097807804</t>
+  </si>
+  <si>
+    <t>Rua Dolores de Aquino</t>
+  </si>
+  <si>
+    <t>2537</t>
+  </si>
+  <si>
+    <t>Jundiapeba</t>
+  </si>
+  <si>
+    <t>08750-790</t>
+  </si>
+  <si>
+    <t>11-97036-5457</t>
+  </si>
+  <si>
+    <t>11-4721-3727</t>
+  </si>
+  <si>
+    <t>04875519664</t>
+  </si>
+  <si>
+    <t>Rua Paulo VI</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>Jd São Pedro</t>
+  </si>
+  <si>
+    <t>08820-340</t>
+  </si>
+  <si>
+    <t>11-97225-5833</t>
+  </si>
+  <si>
+    <t>marceloinapa@gmail.com</t>
+  </si>
+  <si>
+    <t>256585638-52</t>
+  </si>
+  <si>
+    <t>bl A apto 24</t>
+  </si>
+  <si>
+    <t>Jardim Marica</t>
+  </si>
+  <si>
+    <t>11-94013-3092</t>
+  </si>
+  <si>
+    <t>27699396880</t>
+  </si>
+  <si>
+    <t>Rua Manoel Rodrigues de Almeida</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Jd Alteropolis</t>
+  </si>
+  <si>
+    <t>Suzanp</t>
+  </si>
+  <si>
+    <t>08696-315</t>
+  </si>
+  <si>
+    <t>11-94623-2750</t>
+  </si>
+  <si>
+    <t>07764859621</t>
+  </si>
+  <si>
+    <t>Alameda das Harpias</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>cx 278</t>
+  </si>
+  <si>
+    <t>Condominio Vale</t>
+  </si>
+  <si>
+    <t>Ribeirão das Neves</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>33833-232</t>
+  </si>
+  <si>
+    <t>31-98804-2843</t>
+  </si>
+  <si>
+    <t>31-3474-6887</t>
+  </si>
+  <si>
+    <t>mateusresende@hotmail.com</t>
+  </si>
+  <si>
+    <t>09707138866</t>
+  </si>
+  <si>
+    <t>Rua General Osório</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>bl 1 apto 24</t>
+  </si>
+  <si>
+    <t>Vl Nova Aparecida</t>
+  </si>
+  <si>
+    <t>08830-600</t>
+  </si>
+  <si>
+    <t>11-9811-0577</t>
+  </si>
+  <si>
+    <t>11-34589752</t>
+  </si>
+  <si>
+    <t>mclopes2003@hotmail.com</t>
+  </si>
+  <si>
+    <t>40310289890</t>
+  </si>
+  <si>
+    <t>Rua Ametista</t>
+  </si>
+  <si>
+    <t>08670-050</t>
+  </si>
+  <si>
+    <t>11-99343-2231</t>
+  </si>
+  <si>
+    <t>11-4742-9927</t>
+  </si>
+  <si>
+    <t>31627387846</t>
+  </si>
+  <si>
+    <t>Avenida Kennedy</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>cs 12</t>
+  </si>
+  <si>
+    <t>Jd Bela Vista</t>
+  </si>
+  <si>
+    <t>08820-180</t>
+  </si>
+  <si>
+    <t>11-98547-2273</t>
+  </si>
+  <si>
+    <t>nilsonjr2010@gmail.com</t>
+  </si>
+  <si>
+    <t>18748814806</t>
+  </si>
+  <si>
+    <t>Rua Geralda Mangella Ferreira</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Real Park Tiete</t>
+  </si>
+  <si>
+    <t>08752-570</t>
+  </si>
+  <si>
+    <t>11-99759-2968</t>
+  </si>
+  <si>
+    <t>11-4731-8225</t>
+  </si>
+  <si>
+    <t>osneidesp@ig.com.br</t>
+  </si>
+  <si>
+    <t>30561462836</t>
+  </si>
+  <si>
+    <t>Rua Luis Gonzaga</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Jd Ferrão</t>
+  </si>
+  <si>
+    <t>07917-160</t>
+  </si>
+  <si>
+    <t>11-98970-1709</t>
+  </si>
+  <si>
+    <t>11-4881-1011</t>
+  </si>
+  <si>
+    <t>paulodeivid@hotmail.com</t>
+  </si>
+  <si>
+    <t>32874406830</t>
+  </si>
+  <si>
+    <t>Rua Jose Cardoso Xavier</t>
+  </si>
+  <si>
+    <t>594</t>
+  </si>
+  <si>
+    <t>Jd Cacique</t>
+  </si>
+  <si>
+    <t>08616-020</t>
+  </si>
+  <si>
+    <t>11-96181-3535</t>
+  </si>
+  <si>
+    <t>priscila@nakalubrindes.com.br</t>
+  </si>
+  <si>
+    <t>08760408812</t>
+  </si>
+  <si>
+    <t>Rua Martins dos Santos</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Engenheiro Goulart</t>
+  </si>
+  <si>
+    <t>03725-100</t>
+  </si>
+  <si>
+    <t>11-95106-7557</t>
+  </si>
+  <si>
+    <t>11-2621-4894</t>
+  </si>
+  <si>
+    <t>86102966872</t>
+  </si>
+  <si>
+    <t>Rua do Centro</t>
+  </si>
+  <si>
+    <t>748</t>
+  </si>
+  <si>
+    <t>Vl Camilopolis</t>
+  </si>
+  <si>
+    <t>Santo Andre</t>
+  </si>
+  <si>
+    <t>09230-590</t>
+  </si>
+  <si>
+    <t>11-95985-3746</t>
+  </si>
+  <si>
+    <t>11-3370-3705</t>
+  </si>
+  <si>
+    <t>luiz_ricardocassiano@hotmail.com</t>
+  </si>
+  <si>
+    <t>68472889815</t>
+  </si>
+  <si>
+    <t>Rua Geronimo Mazieiro</t>
+  </si>
+  <si>
+    <t>Vl Jaú</t>
+  </si>
+  <si>
+    <t>08559-060</t>
+  </si>
+  <si>
+    <t>11-99914-1933</t>
+  </si>
+  <si>
+    <t>30252282884</t>
+  </si>
+  <si>
+    <t>Rua Jose Guedes</t>
+  </si>
+  <si>
+    <t>423</t>
+  </si>
+  <si>
+    <t>Chacara Ceres</t>
+  </si>
+  <si>
+    <t>08655-260</t>
+  </si>
+  <si>
+    <t>11-96703-1212</t>
+  </si>
+  <si>
+    <t>11-2851-6223</t>
+  </si>
+  <si>
+    <t>romulo.net@gmail.com</t>
+  </si>
+  <si>
+    <t>05382146861</t>
+  </si>
+  <si>
+    <t>Avenida Francisco Marengo</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Jd Revista</t>
+  </si>
+  <si>
+    <t>08694-000</t>
+  </si>
+  <si>
+    <t>11-97118-6141</t>
+  </si>
+  <si>
+    <t>romacruz@gmail.com</t>
+  </si>
+  <si>
+    <t>04600033809</t>
+  </si>
+  <si>
+    <t>Rua Iperoig</t>
+  </si>
+  <si>
+    <t>742</t>
+  </si>
+  <si>
+    <t>apto 113</t>
+  </si>
+  <si>
+    <t>Perdizes</t>
+  </si>
+  <si>
+    <t>05016-000</t>
+  </si>
+  <si>
+    <t>11-99569-0550</t>
+  </si>
+  <si>
+    <t>r.moises04@gmail.com</t>
+  </si>
+  <si>
+    <t>25488013814</t>
+  </si>
+  <si>
+    <t>114731-8225</t>
+  </si>
+  <si>
+    <t>16307506890</t>
+  </si>
+  <si>
+    <t>Rua Dezenove de Julho</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>Cidade Boa Vista</t>
+  </si>
+  <si>
+    <t>08693-020</t>
+  </si>
+  <si>
+    <t>11-97044-7471</t>
+  </si>
+  <si>
+    <t>11-4752-3835</t>
+  </si>
+  <si>
+    <t>samuelviana72@hotmail.com</t>
+  </si>
+  <si>
+    <t>13595329000194</t>
+  </si>
+  <si>
+    <t>Rua Duque Costa</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>Vl Sofia</t>
+  </si>
+  <si>
+    <t>04671-160</t>
+  </si>
+  <si>
+    <t>11-99947-5862</t>
+  </si>
+  <si>
+    <t>gabivendas@hotmail.com</t>
+  </si>
+  <si>
+    <t>21675714886</t>
+  </si>
+  <si>
+    <t>Rua Abram Chain Pryzant</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>Pq Santo Antonio</t>
+  </si>
+  <si>
+    <t>05852-410</t>
+  </si>
+  <si>
+    <t>11-96883-8869</t>
+  </si>
+  <si>
+    <t>11-96348-1951</t>
+  </si>
+  <si>
+    <t>vaguinho_usa@hotmail.com</t>
+  </si>
+  <si>
+    <t>42614341487</t>
+  </si>
+  <si>
+    <t>Rua Theodoro Sampaio</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Jd Santa Luiza</t>
+  </si>
+  <si>
+    <t>08555-010</t>
+  </si>
+  <si>
+    <t>11-94449-0661</t>
+  </si>
+  <si>
+    <t>11-4638-8047</t>
+  </si>
+  <si>
+    <t>drika350@yahoo.com.br</t>
+  </si>
+  <si>
+    <t>34227398827</t>
+  </si>
+  <si>
+    <t>Avenida Anacleto de Jessus Ferreira</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Arujá</t>
+  </si>
+  <si>
+    <t>07403-085</t>
+  </si>
+  <si>
+    <t>11-97308-5530</t>
+  </si>
+  <si>
+    <t>25523319805</t>
+  </si>
+  <si>
+    <t>11-98143-0021</t>
+  </si>
+  <si>
+    <t>11-3458-9752</t>
+  </si>
+  <si>
+    <t>vchiozi@outlook.com</t>
+  </si>
   <si>
     <t>Adalberto Arnaldo Freire</t>
   </si>
   <si>
-    <t>Rua C</t>
-  </si>
-  <si>
-    <t>Vl Moraes</t>
-  </si>
-  <si>
-    <t>Mogi das Cruzes</t>
-  </si>
-  <si>
-    <t>SP</t>
-  </si>
-  <si>
-    <t>08766-530</t>
-  </si>
-  <si>
-    <t>11-4725-7393</t>
-  </si>
-  <si>
-    <t>rmachad3@hotmail.com</t>
+    <t>Agatha Aparecida Sato</t>
+  </si>
+  <si>
+    <t>Aldenia Placido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aline Cristina de Paula </t>
+  </si>
+  <si>
+    <t>Andreza da Serra Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariane Lopes Melo </t>
+  </si>
+  <si>
+    <t>Barbara Elizabeth dos Santos Gonzaga</t>
+  </si>
+  <si>
+    <t>Caroline Aparecida da Silva Mattos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celia Xavier Araujo </t>
+  </si>
+  <si>
+    <t>Clara Beatriz Firmo Alves</t>
+  </si>
+  <si>
+    <t>Claudia Aparecida Hossoda Jarjura</t>
+  </si>
+  <si>
+    <t>Cleuza Pereira da Silva</t>
+  </si>
+  <si>
+    <t>Cristiane Daozilia da Silva</t>
+  </si>
+  <si>
+    <t>Daniel Firmo Alves</t>
+  </si>
+  <si>
+    <t>Daniele Aparecida dos Santos Ferreira</t>
+  </si>
+  <si>
+    <t>Danilo Souza da Silveira</t>
+  </si>
+  <si>
+    <t>David Campos Silva</t>
+  </si>
+  <si>
+    <t>Deize Sibele de Souza Reno</t>
+  </si>
+  <si>
+    <t>Denis Willians Leal</t>
+  </si>
+  <si>
+    <t>Douglas Dornelas Marcelino</t>
+  </si>
+  <si>
+    <t>Eder Carreiro da Silva</t>
+  </si>
+  <si>
+    <t>Edvaldo Rodrigues Lacerda</t>
+  </si>
+  <si>
+    <t>Eirck Pereira dos Santos Galvão</t>
+  </si>
+  <si>
+    <t>Elcio Aparecido dos Santos</t>
+  </si>
+  <si>
+    <t>Eliane Oliveira Soares</t>
+  </si>
+  <si>
+    <t>Fabricio Rodrigo Ferreira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felipe Fortuna da Silva </t>
+  </si>
+  <si>
+    <t>Filipe Aparecido Sant Anna</t>
+  </si>
+  <si>
+    <t>Filipe Araujo Correa</t>
+  </si>
+  <si>
+    <t>Fratec Abrasivos LTDA Epp</t>
+  </si>
+  <si>
+    <t>Ivone Cardoso Borowiec</t>
+  </si>
+  <si>
+    <t>Jean Paulo Freire de Almeida e Melo</t>
+  </si>
+  <si>
+    <t>Jeverson Alexandre Repullo</t>
+  </si>
+  <si>
+    <t>Joao Francisco da Silva</t>
+  </si>
+  <si>
+    <t>Joao Maria Machado dos Santos</t>
+  </si>
+  <si>
+    <t>Jose Carlos da Silva</t>
+  </si>
+  <si>
+    <t>Jose João da Silva</t>
+  </si>
+  <si>
+    <t>Jose Virgilio Basseto</t>
+  </si>
+  <si>
+    <t>Josimar Aparecido do Patrocinio</t>
+  </si>
+  <si>
+    <t>Josimari Evangelista Bonfim Cunha</t>
+  </si>
+  <si>
+    <t>Karen Preveda Barboza</t>
+  </si>
+  <si>
+    <t>Katia Denise Feitosa</t>
+  </si>
+  <si>
+    <t>Kelly Aparecida da Silva Firmo Alves</t>
+  </si>
+  <si>
+    <t>Leandro Schafranski Blachechen</t>
+  </si>
+  <si>
+    <t>Leticia Yumi Egichi</t>
+  </si>
+  <si>
+    <t>Lindinalva Donzilia da Silva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luciana Aparecida Baldin </t>
+  </si>
+  <si>
+    <t>Luciana de Mendonça Duarte Guimaraes</t>
+  </si>
+  <si>
+    <t>Luiz Alberto Jardim</t>
+  </si>
+  <si>
+    <t>Marcelo Aparecido Inocencio</t>
+  </si>
+  <si>
+    <t>Marcelo Wady Jarjura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcio Pereira Avila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mateus Resende Pontes </t>
+  </si>
+  <si>
+    <t>Maurilio de Castro Lopes</t>
+  </si>
+  <si>
+    <t>Michael Fernandes Alves Pereira</t>
+  </si>
+  <si>
+    <t>Nilson Rosa de Jesus Junior</t>
+  </si>
+  <si>
+    <t>Osneide dos Santos Nunes</t>
+  </si>
+  <si>
+    <t>Paulo dos Santos Nascimento</t>
+  </si>
+  <si>
+    <t>Priscila Regina dos Santos Silva</t>
+  </si>
+  <si>
+    <t>Ricardo Correa da Silva</t>
+  </si>
+  <si>
+    <t>Ricardo Gomez</t>
+  </si>
+  <si>
+    <t>Ricardo Rezende Braga</t>
+  </si>
+  <si>
+    <t>Romulo Cesar Nunes da Silva</t>
+  </si>
+  <si>
+    <t>Rosana Maria Cruz</t>
+  </si>
+  <si>
+    <t>Roseli Moises</t>
+  </si>
+  <si>
+    <t>Rubens Anderson Mendes de Souza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samuel Viana da Silva </t>
+  </si>
+  <si>
+    <t>Tiago de Avila Bispo Me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vagner Teodoro da Silva </t>
+  </si>
+  <si>
+    <t>Valdemar Cristino</t>
+  </si>
+  <si>
+    <t>Valeria Aldavis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviane Aparecida Chiozi Lopes </t>
   </si>
 </sst>
 </file>
@@ -77,9 +1821,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,23 +1864,74 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Moeda 2" xfId="1"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -451,70 +2244,2685 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>23694289100</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
+      <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" s="6"/>
-      <c r="M1" s="2" t="s">
-        <v>7</v>
+      <c r="M1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L9" s="7"/>
+      <c r="A9" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="6"/>
+      <c r="M9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="11"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" s="22">
+        <v>30410586854</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B19" s="22">
+        <v>34535341826</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" s="11"/>
+      <c r="M20" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21" s="22">
+        <v>32081306867</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B22" s="21">
+        <v>29972597890</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B23" s="21">
+        <v>37204573897</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B24" s="22">
+        <v>69942650806</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B25" s="21">
+        <v>32688492888</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="24"/>
+      <c r="F25" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B26" s="22">
+        <v>41036057828</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B27" s="22">
+        <v>45694323874</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>543</v>
+      </c>
+      <c r="B28" s="21">
+        <v>27096282874</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B29" s="22">
+        <v>36413126809</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B31" s="22">
+        <v>25631877880</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="21">
+        <v>21458994805</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" s="21">
+        <v>18597908874</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B37" s="22">
+        <v>26715716820</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B39" s="21">
+        <v>24602645852</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" s="13"/>
+      <c r="M39" s="12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="20" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="L48" s="11"/>
+      <c r="M48" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="L51" s="6"/>
+      <c r="M51" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="L54" s="6"/>
+      <c r="M54" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="L55" s="11"/>
+      <c r="M55" s="13"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="L60" s="11"/>
+      <c r="M60" s="12"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="L61" s="6"/>
+      <c r="M61" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="13"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>450</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E63" s="24"/>
+      <c r="F63" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="K63" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="L63" s="13"/>
+      <c r="M63" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="L66" s="13"/>
+      <c r="M66" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="13" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="J68" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="L69" s="11"/>
+      <c r="M69" s="20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="M70" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="13"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="L72" s="13"/>
+      <c r="M72" s="14" t="s">
+        <v>515</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M1" r:id="rId1"/>
+    <hyperlink ref="M27" r:id="rId1"/>
+    <hyperlink ref="M24" r:id="rId2"/>
+    <hyperlink ref="M21" r:id="rId3"/>
+    <hyperlink ref="M2" r:id="rId4"/>
+    <hyperlink ref="M7" r:id="rId5"/>
+    <hyperlink ref="M5" r:id="rId6"/>
+    <hyperlink ref="M32" r:id="rId7"/>
+    <hyperlink ref="M69" r:id="rId8"/>
+    <hyperlink ref="M15" r:id="rId9"/>
+    <hyperlink ref="M42" r:id="rId10"/>
+    <hyperlink ref="M45" r:id="rId11"/>
+    <hyperlink ref="M48" r:id="rId12"/>
+    <hyperlink ref="M43" r:id="rId13"/>
+    <hyperlink ref="M68" r:id="rId14"/>
+    <hyperlink ref="M64" r:id="rId15"/>
+    <hyperlink ref="M28" r:id="rId16"/>
+    <hyperlink ref="M22" r:id="rId17"/>
+    <hyperlink ref="M20" r:id="rId18"/>
+    <hyperlink ref="M8" r:id="rId19"/>
+    <hyperlink ref="M70" r:id="rId20"/>
+    <hyperlink ref="M11" r:id="rId21"/>
+    <hyperlink ref="M56" r:id="rId22"/>
+    <hyperlink ref="M3" r:id="rId23"/>
+    <hyperlink ref="M1" r:id="rId24"/>
+    <hyperlink ref="M39" r:id="rId25"/>
+    <hyperlink ref="M26" r:id="rId26"/>
+    <hyperlink ref="M37" r:id="rId27"/>
+    <hyperlink ref="M25" r:id="rId28"/>
+    <hyperlink ref="M53" r:id="rId29"/>
+    <hyperlink ref="M30" r:id="rId30" display="mailto:francisco.gomes@fratec.com.br"/>
+    <hyperlink ref="M51" r:id="rId31"/>
+    <hyperlink ref="M6" r:id="rId32"/>
+    <hyperlink ref="M63" r:id="rId33"/>
+    <hyperlink ref="M13" r:id="rId34"/>
+    <hyperlink ref="M66" r:id="rId35"/>
+    <hyperlink ref="M41" r:id="rId36"/>
+    <hyperlink ref="M10" r:id="rId37"/>
+    <hyperlink ref="M40" r:id="rId38"/>
+    <hyperlink ref="M38" r:id="rId39"/>
+    <hyperlink ref="M47" r:id="rId40"/>
+    <hyperlink ref="M58" r:id="rId41"/>
+    <hyperlink ref="M72" r:id="rId42"/>
+    <hyperlink ref="M59" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="604">
   <si>
     <t>23694289100</t>
   </si>
@@ -1788,6 +1788,54 @@
   </si>
   <si>
     <t xml:space="preserve">Viviane Aparecida Chiozi Lopes </t>
+  </si>
+  <si>
+    <t>25631877880</t>
+  </si>
+  <si>
+    <t>21458994805</t>
+  </si>
+  <si>
+    <t>18597908874</t>
+  </si>
+  <si>
+    <t>26715716820</t>
+  </si>
+  <si>
+    <t>30410586854</t>
+  </si>
+  <si>
+    <t>34535341826</t>
+  </si>
+  <si>
+    <t>32081306867</t>
+  </si>
+  <si>
+    <t>29972597890</t>
+  </si>
+  <si>
+    <t>37204573897</t>
+  </si>
+  <si>
+    <t>69942650806</t>
+  </si>
+  <si>
+    <t>32688492888</t>
+  </si>
+  <si>
+    <t>41036057828</t>
+  </si>
+  <si>
+    <t>45694323874</t>
+  </si>
+  <si>
+    <t>27096282874</t>
+  </si>
+  <si>
+    <t>36413126809</t>
+  </si>
+  <si>
+    <t>24602645852</t>
   </si>
 </sst>
 </file>
@@ -2246,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,8 +2944,8 @@
       <c r="A18" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="B18" s="22">
-        <v>30410586854</v>
+      <c r="B18" s="22" t="s">
+        <v>592</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>135</v>
@@ -2935,8 +2983,8 @@
       <c r="A19" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B19" s="22">
-        <v>34535341826</v>
+      <c r="B19" s="22" t="s">
+        <v>593</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>143</v>
@@ -3007,8 +3055,8 @@
       <c r="A21" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B21" s="22">
-        <v>32081306867</v>
+      <c r="B21" s="22" t="s">
+        <v>594</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>158</v>
@@ -3042,8 +3090,8 @@
       <c r="A22" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="B22" s="21">
-        <v>29972597890</v>
+      <c r="B22" s="21" t="s">
+        <v>595</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>164</v>
@@ -3079,8 +3127,8 @@
       <c r="A23" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="B23" s="21">
-        <v>37204573897</v>
+      <c r="B23" s="21" t="s">
+        <v>596</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>171</v>
@@ -3116,8 +3164,8 @@
       <c r="A24" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B24" s="22">
-        <v>69942650806</v>
+      <c r="B24" s="22" t="s">
+        <v>597</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>177</v>
@@ -3153,8 +3201,8 @@
       <c r="A25" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="B25" s="21">
-        <v>32688492888</v>
+      <c r="B25" s="21" t="s">
+        <v>598</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>184</v>
@@ -3190,8 +3238,8 @@
       <c r="A26" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B26" s="22">
-        <v>41036057828</v>
+      <c r="B26" s="22" t="s">
+        <v>599</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>192</v>
@@ -3225,8 +3273,8 @@
       <c r="A27" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B27" s="22">
-        <v>45694323874</v>
+      <c r="B27" s="22" t="s">
+        <v>600</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>198</v>
@@ -3260,8 +3308,8 @@
       <c r="A28" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="B28" s="21">
-        <v>27096282874</v>
+      <c r="B28" s="21" t="s">
+        <v>601</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>203</v>
@@ -3297,8 +3345,8 @@
       <c r="A29" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="B29" s="22">
-        <v>36413126809</v>
+      <c r="B29" s="22" t="s">
+        <v>602</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>210</v>
@@ -3367,8 +3415,8 @@
       <c r="A31" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="B31" s="22">
-        <v>25631877880</v>
+      <c r="B31" s="22" t="s">
+        <v>588</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>224</v>
@@ -3402,8 +3450,8 @@
       <c r="A32" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B32" s="21">
-        <v>21458994805</v>
+      <c r="B32" s="21" t="s">
+        <v>589</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>230</v>
@@ -3439,8 +3487,8 @@
       <c r="A33" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B33" s="21">
-        <v>18597908874</v>
+      <c r="B33" s="21" t="s">
+        <v>590</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>236</v>
@@ -3577,8 +3625,8 @@
       <c r="A37" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="B37" s="22">
-        <v>26715716820</v>
+      <c r="B37" s="22" t="s">
+        <v>591</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>262</v>
@@ -3651,8 +3699,8 @@
       <c r="A39" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B39" s="21">
-        <v>24602645852</v>
+      <c r="B39" s="21" t="s">
+        <v>603</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>278</v>
@@ -4924,5 +4972,6 @@
     <hyperlink ref="M59" r:id="rId43"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId44"/>
 </worksheet>
 </file>